--- a/invoice-doc/invoice_basic_design.xlsx
+++ b/invoice-doc/invoice_basic_design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="260">
   <si>
     <t>改版履歴</t>
     <rPh sb="0" eb="2">
@@ -353,10 +353,6 @@
     <rPh sb="14" eb="16">
       <t>ヘンキャク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -543,26 +539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>存在しない番号が指定された場合はエラー(400)</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>invoice_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,10 +607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>invoice_start_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録ユーザID</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -676,22 +648,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_datetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create_datetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>del_flg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -809,52 +765,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/getinvoice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/getlist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>client_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>invoice_create_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>請求書一覧</t>
-    <rPh sb="0" eb="3">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　請求書管理番号</t>
     <rPh sb="1" eb="4">
       <t>セイキュウショ</t>
@@ -906,13 +816,6 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.1.0版</t>
-    <rPh sb="5" eb="6">
-      <t>ハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1130,10 +1033,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>invoice_list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">  invoice_no</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1142,18 +1041,516 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{
-    "invoice_list":[
-        {
-            "invoice_no":5678,
-            "invoice_titile":"サンプルタイトル"
-        },
-        {
-            "invoice_no":9123,
-            "invoice_titile":"サンプルタイトル②"
-        }
-    ]
-}</t>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/invoice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/invoice/{請求書管理番号}</t>
+    <rPh sb="13" eb="16">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/invoice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　顧客管理番号</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　請求状態</t>
+    <rPh sb="1" eb="3">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　請求書作成日</t>
+    <rPh sb="1" eb="4">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　請求金額</t>
+    <rPh sb="1" eb="3">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　消費税</t>
+    <rPh sb="1" eb="4">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　請求期間開始日</t>
+    <rPh sb="1" eb="3">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　請求期間終了日</t>
+    <rPh sb="1" eb="3">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　備考</t>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　登録ユーザID</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　登録日時</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　更新ユーザID</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　更新日時</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　削除フラグ</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　注文内容</t>
+    <rPh sb="1" eb="3">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　商品管理番号</t>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　商品名</t>
+    <rPh sb="2" eb="5">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　商材区分</t>
+    <rPh sb="2" eb="4">
+      <t>ショウザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　商品販売価格（税抜き）</t>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　購入数量</t>
+    <rPh sb="2" eb="5">
+      <t>コウニュウスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  client_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  invoice_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  invoice_create_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  invoice_amt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  tax_amt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  invoice_start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  invoice_end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  invoice_note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  create_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  create_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  update_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  update_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  del_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    item_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    item_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    item_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    item_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    item_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.1版</t>
+    <rPh sb="5" eb="6">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.請求書作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.リクエスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.リクエスト
+　・基本仕様のパスを修正
+　・リクエストボディの「請求書管理番号」を削除</t>
+    <rPh sb="10" eb="12">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.請求書取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.JSONサンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.請求書一覧取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.リクエスト
+　・基本仕様のパスを修正
+　・基本仕様のメソッドをGETに修正
+　・リクエストボディを削除
+3.JSONサンプル
+　・リクエストJSONサンプルを削除</t>
+    <rPh sb="10" eb="12">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.リクエスト
+　・基本仕様のパスを修正
+　・基本仕様のメソッドをGETに修正
+　・リクエストボディを削除
+2.レスポンス
+　・レスポンスボディを請求書データをすべて取得できるように修正
+3.JSONサンプル
+　・リクエストJSONサンプルを削除</t>
+    <rPh sb="73" eb="76">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "invoice_no":5678,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "client_no":12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "invoice_status":"10",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "invoice_create_date":1516806000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "invoice_titile":"サンプルタイトル",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "invoice_amt":10800,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "tax_amt":800,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "invoice_start_date":1512054000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "invoice_end_date":1514732399,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "invoice_note":"サンプル備考",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "create_user":"1234",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "create_datetime":1516806000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "update_user":"1234",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "update_datetime":1516806000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "del_flg":"0",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "order":[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_no":1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_name":"漫画①",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_type":"10",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_price":400,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_count":2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_no":5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_name":"PC②",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_type":"20",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_price":9200,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "item_count":1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1161,7 +1558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,6 +1615,48 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1233,7 +1672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1318,6 +1757,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1327,7 +1823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,9 +1848,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1370,6 +1863,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1377,6 +1918,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1388,11 +1935,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1681,25 +2240,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>131</v>
+      <c r="A9" s="20" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A16" s="12">
-        <v>43093</v>
+      <c r="A16" s="11">
+        <v>43099</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +2276,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="5" width="12.19921875" customWidth="1"/>
+    <col min="2" max="3" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="64.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.45">
@@ -1741,7 +2302,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3">
         <v>43093</v>
@@ -1753,35 +2314,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="6" spans="2:5" ht="54" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="21">
+        <v>43094</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="108" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="21">
+        <v>43094</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="144" x14ac:dyDescent="0.45">
+      <c r="B8" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="21">
+        <v>43094</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
@@ -1854,7 +2439,7 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1863,7 +2448,7 @@
         <f t="shared" ref="B8:B9" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1872,7 +2457,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1897,7 +2482,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="8.296875" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.69921875" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
@@ -1906,12 +2491,12 @@
   <sheetData>
     <row r="2" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
@@ -1920,40 +2505,40 @@
     <row r="6" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
@@ -1993,32 +2578,32 @@
         <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="D16" s="1">
+      <c r="D16" s="14">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>71</v>
+      <c r="I16" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D17" s="1">
-        <v>3</v>
+      <c r="D17" s="13">
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>33</v>
@@ -2037,14 +2622,14 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D18" s="1">
-        <v>4</v>
+      <c r="D18" s="13">
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>29</v>
@@ -2057,14 +2642,14 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D19" s="1">
-        <v>5</v>
+      <c r="D19" s="13">
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>27</v>
@@ -2077,14 +2662,14 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D20" s="1">
-        <v>6</v>
+      <c r="D20" s="13">
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -2097,14 +2682,14 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D21" s="1">
-        <v>7</v>
+      <c r="D21" s="13">
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>29</v>
@@ -2127,16 +2712,16 @@
     <row r="25" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B25" s="4"/>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B26" s="4"/>
       <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
@@ -2145,7 +2730,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
@@ -2154,33 +2739,33 @@
         <v>400</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.45">
@@ -2211,7 +2796,7 @@
         <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>27</v>
@@ -2225,28 +2810,28 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="11"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="163.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="10"/>
       <c r="D42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="2:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="11"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2261,7 +2846,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I90"/>
+  <dimension ref="B2:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2269,279 +2854,264 @@
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B20" s="4"/>
-      <c r="C20" t="s">
-        <v>53</v>
+      <c r="D20" s="1">
+        <v>200</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="4"/>
-      <c r="D22" s="1">
-        <v>200</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D21" s="1">
+        <v>400</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="4"/>
-      <c r="D23" s="1">
-        <v>400</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>62</v>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>58</v>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>18</v>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D34" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D35" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>27</v>
@@ -2550,38 +3120,38 @@
         <v>28</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D36" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D37" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>27</v>
@@ -2590,98 +3160,98 @@
         <v>28</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D38" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D39" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D40" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D41" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D42" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>29</v>
@@ -2695,13 +3265,13 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D43" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>27</v>
@@ -2715,13 +3285,13 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D44" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>29</v>
@@ -2730,104 +3300,104 @@
         <v>28</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D45" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D46" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D47" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D48" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D49" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>104</v>
@@ -2835,350 +3405,310 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D50" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C55" s="10"/>
+      <c r="D55" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="38"/>
+    </row>
+    <row r="56" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="10"/>
+      <c r="D56" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D57" s="36"/>
+      <c r="E57" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D58" s="36"/>
+      <c r="E58" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="31"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D59" s="36"/>
+      <c r="E59" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D60" s="36"/>
+      <c r="E60" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D61" s="36"/>
+      <c r="E61" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D62" s="36"/>
+      <c r="E62" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D63" s="36"/>
+      <c r="E63" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D64" s="36"/>
+      <c r="E64" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="31"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D65" s="36"/>
+      <c r="E65" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="31"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D66" s="36"/>
+      <c r="E66" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D67" s="36"/>
+      <c r="E67" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="31"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D68" s="36"/>
+      <c r="E68" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="31"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D69" s="36"/>
+      <c r="E69" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F69" s="31"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D70" s="36"/>
+      <c r="E70" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="31"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D71" s="36"/>
+      <c r="E71" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D72" s="36"/>
+      <c r="E72" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D51" s="1">
-        <v>20</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="F72" s="31"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D73" s="36"/>
+      <c r="E73" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D52" s="1">
-        <v>21</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="F73" s="31"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D74" s="36"/>
+      <c r="E74" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C57" s="11"/>
-      <c r="D57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="11"/>
-      <c r="D58" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="20" t="s">
+      <c r="F74" s="31"/>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D75" s="36"/>
+      <c r="E75" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D59" s="19"/>
-      <c r="E59" s="15" t="s">
+      <c r="F75" s="31"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D76" s="36"/>
+      <c r="E76" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D60" s="19"/>
-      <c r="E60" s="15" t="s">
+      <c r="F76" s="31"/>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D77" s="36"/>
+      <c r="E77" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D61" s="19"/>
-      <c r="E61" s="15" t="s">
+      <c r="F77" s="31"/>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D78" s="36"/>
+      <c r="E78" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D62" s="19"/>
-      <c r="E62" s="15" t="s">
+      <c r="F78" s="31"/>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D79" s="36"/>
+      <c r="E79" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D63" s="19"/>
-      <c r="E63" s="15" t="s">
+      <c r="F79" s="31"/>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D80" s="36"/>
+      <c r="E80" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="31"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D81" s="36"/>
+      <c r="E81" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D64" s="19"/>
-      <c r="E64" s="15" t="s">
+      <c r="F81" s="31"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D82" s="36"/>
+      <c r="E82" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D65" s="19"/>
-      <c r="E65" s="15" t="s">
+      <c r="F82" s="31"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D83" s="36"/>
+      <c r="E83" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D66" s="19"/>
-      <c r="E66" s="15" t="s">
+      <c r="F83" s="31"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D84" s="36"/>
+      <c r="E84" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D67" s="19"/>
-      <c r="E67" s="15" t="s">
+      <c r="F84" s="31"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D85" s="36"/>
+      <c r="E85" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D68" s="19"/>
-      <c r="E68" s="15" t="s">
+      <c r="F85" s="31"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D86" s="36"/>
+      <c r="E86" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D69" s="19"/>
-      <c r="E69" s="15" t="s">
+      <c r="F86" s="31"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D87" s="36"/>
+      <c r="E87" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D70" s="19"/>
-      <c r="E70" s="15" t="s">
+      <c r="F87" s="31"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D88" s="36"/>
+      <c r="E88" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D71" s="19"/>
-      <c r="E71" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D72" s="19"/>
-      <c r="E72" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D73" s="19"/>
-      <c r="E73" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D74" s="19"/>
-      <c r="E74" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D75" s="19"/>
-      <c r="E75" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D76" s="19"/>
-      <c r="E76" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D77" s="19"/>
-      <c r="E77" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D78" s="19"/>
-      <c r="E78" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D79" s="19"/>
-      <c r="E79" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D80" s="19"/>
-      <c r="E80" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D81" s="19"/>
-      <c r="E81" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D82" s="19"/>
-      <c r="E82" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F82" s="16"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D83" s="19"/>
-      <c r="E83" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D84" s="19"/>
-      <c r="E84" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F84" s="16"/>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D85" s="19"/>
-      <c r="E85" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F85" s="16"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D86" s="19"/>
-      <c r="E86" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F86" s="16"/>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D87" s="19"/>
-      <c r="E87" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D88" s="19"/>
-      <c r="E88" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F88" s="16"/>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D89" s="19"/>
-      <c r="E89" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F89" s="16"/>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D90" s="19"/>
-      <c r="E90" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F90" s="18"/>
+      <c r="F88" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="D56:D88"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E69:F69"/>
     <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="D58:D90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3188,22 +3718,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:I124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" customWidth="1"/>
     <col min="9" max="9" width="41.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
@@ -3217,451 +3747,1093 @@
     <row r="6" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B19" s="4"/>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B20" s="4"/>
+      <c r="D20" s="1">
+        <v>200</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B21" s="4"/>
+      <c r="D21" s="1">
+        <v>400</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D15" s="1">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="1" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D32" s="13">
+        <v>3</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="H32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D33" s="13">
+        <v>4</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="1" t="s">
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D34" s="13">
+        <v>5</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D35" s="13">
+        <v>6</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D36" s="13">
+        <v>7</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="H36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D37" s="13">
+        <v>8</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D38" s="13">
+        <v>9</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="1" t="s">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D39" s="13">
+        <v>10</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D40" s="13">
+        <v>11</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I40" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D41" s="13">
+        <v>12</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D42" s="13">
+        <v>13</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="1" t="s">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D43" s="13">
+        <v>14</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D44" s="13">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="H44" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D21" s="1">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="1" t="s">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D45" s="13">
+        <v>16</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D22" s="1">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H45" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D46" s="13">
+        <v>17</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D47" s="13">
+        <v>18</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D23" s="1">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="H47" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D48" s="13">
+        <v>19</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="H48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D49" s="13">
+        <v>20</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D50" s="13">
+        <v>21</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="4"/>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="4"/>
-      <c r="D29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="4"/>
-      <c r="D30" s="1">
-        <v>200</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="4"/>
-      <c r="D31" s="1">
-        <v>400</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="H50" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D51" s="13">
+        <v>22</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="249" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="11"/>
-      <c r="D47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="2:9" ht="210.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D48" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="14"/>
+      <c r="H51" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="249" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="10"/>
+      <c r="D56" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="39"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D57" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D58" s="41"/>
+      <c r="E58" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D59" s="41"/>
+      <c r="E59" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D60" s="41"/>
+      <c r="E60" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D61" s="41"/>
+      <c r="E61" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D62" s="41"/>
+      <c r="E62" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D63" s="41"/>
+      <c r="E63" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D64" s="41"/>
+      <c r="E64" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" s="23"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D65" s="41"/>
+      <c r="E65" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D66" s="41"/>
+      <c r="E66" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D67" s="41"/>
+      <c r="E67" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D68" s="41"/>
+      <c r="E68" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D69" s="41"/>
+      <c r="E69" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D70" s="41"/>
+      <c r="E70" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D71" s="41"/>
+      <c r="E71" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D72" s="41"/>
+      <c r="E72" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D73" s="41"/>
+      <c r="E73" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D74" s="41"/>
+      <c r="E74" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D75" s="41"/>
+      <c r="E75" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F75" s="23"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D76" s="41"/>
+      <c r="E76" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" s="23"/>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D77" s="41"/>
+      <c r="E77" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" s="23"/>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D78" s="41"/>
+      <c r="E78" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F78" s="23"/>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D79" s="41"/>
+      <c r="E79" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F79" s="23"/>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D80" s="41"/>
+      <c r="E80" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F80" s="23"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D81" s="41"/>
+      <c r="E81" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F81" s="23"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D82" s="41"/>
+      <c r="E82" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D83" s="41"/>
+      <c r="E83" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F83" s="23"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D84" s="41"/>
+      <c r="E84" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D85" s="41"/>
+      <c r="E85" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D86" s="41"/>
+      <c r="E86" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F86" s="23"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D87" s="41"/>
+      <c r="E87" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F87" s="23"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D88" s="41"/>
+      <c r="E88" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" s="23"/>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D89" s="41"/>
+      <c r="E89" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="23"/>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D90" s="41"/>
+      <c r="E90" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F90" s="23"/>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D91" s="41"/>
+      <c r="E91" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F91" s="23"/>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D92" s="41"/>
+      <c r="E92" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="23"/>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D93" s="41"/>
+      <c r="E93" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F93" s="23"/>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D94" s="41"/>
+      <c r="E94" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D95" s="41"/>
+      <c r="E95" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F95" s="23"/>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D96" s="41"/>
+      <c r="E96" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D97" s="41"/>
+      <c r="E97" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F97" s="23"/>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D98" s="41"/>
+      <c r="E98" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D99" s="41"/>
+      <c r="E99" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F99" s="23"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D100" s="41"/>
+      <c r="E100" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" s="23"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D101" s="41"/>
+      <c r="E101" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101" s="23"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D102" s="41"/>
+      <c r="E102" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F102" s="23"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D103" s="41"/>
+      <c r="E103" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F103" s="23"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D104" s="41"/>
+      <c r="E104" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" s="23"/>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D105" s="41"/>
+      <c r="E105" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F105" s="23"/>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D106" s="41"/>
+      <c r="E106" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F106" s="23"/>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D107" s="41"/>
+      <c r="E107" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F107" s="23"/>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D108" s="41"/>
+      <c r="E108" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F108" s="23"/>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D109" s="41"/>
+      <c r="E109" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F109" s="23"/>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D110" s="41"/>
+      <c r="E110" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F110" s="23"/>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D111" s="41"/>
+      <c r="E111" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F111" s="23"/>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D112" s="41"/>
+      <c r="E112" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F112" s="23"/>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D113" s="41"/>
+      <c r="E113" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113" s="23"/>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D114" s="41"/>
+      <c r="E114" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F114" s="23"/>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D115" s="41"/>
+      <c r="E115" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F115" s="23"/>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D116" s="41"/>
+      <c r="E116" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F116" s="23"/>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D117" s="41"/>
+      <c r="E117" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F117" s="23"/>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D118" s="41"/>
+      <c r="E118" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F118" s="23"/>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D119" s="41"/>
+      <c r="E119" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F119" s="23"/>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D120" s="41"/>
+      <c r="E120" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F120" s="23"/>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D121" s="41"/>
+      <c r="E121" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F121" s="23"/>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D122" s="41"/>
+      <c r="E122" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F122" s="23"/>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D123" s="41"/>
+      <c r="E123" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F123" s="23"/>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D124" s="42"/>
+      <c r="E124" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F124" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="D57:D124"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/invoice-doc/invoice_basic_design.xlsx
+++ b/invoice-doc/invoice_basic_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="265">
   <si>
     <t>改版履歴</t>
     <rPh sb="0" eb="2">
@@ -337,25 +337,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録・更新に成功した場合のみ返却する</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リクエストヘッダー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -455,20 +436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>invoice_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録ユーザ・更新ユーザID</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>invoice_title</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -488,49 +455,6 @@
     <t>リクエスト異常</t>
     <rPh sb="5" eb="7">
       <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本パラメータの有無によって以下の動作となる。
-・なし：新規登録
-・あり：すでに登録済みの番号があれば更新
-　　　　未登録の番号であればエラー(400)</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ミトウロク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1005,30 +929,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>{
-    "user_id":"1234",
-    "invoice_no":12
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{
-    "user_id":"1234",
-    "invoice_no":5678,
-    "client_no":12,
-    "invoice_status":"10",
-    "invoice_create_date":1516806000,
-    "invoice_start_date":1512054000,
-    "invoice_end_date":1514732399,
-    "invoice_note":"サンプル備考",
-    "create_user":"1234",
-    "create_datetime":1516806000,
-    "update_user":"1234",
-    "update_datetime":1516806000
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レスポンス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1066,10 +966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/invoice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1343,18 +1239,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.1.1版</t>
-    <rPh sb="5" eb="6">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.1.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.請求書作成</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1377,10 +1262,6 @@
     <rPh sb="42" eb="44">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.請求書取得</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1553,12 +1434,215 @@
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>api/invoice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録に成功した場合のみ返却する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客管理テーブルに登録されていない場合はエラー(400)</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">単位はミリ秒
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0未満はエラー(400)</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">単位はミリ秒
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>請求期間開始日以下が指定された場合はエラー(400)</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されていない番号が指定された場合はエラー(400)</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.請求書作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.請求書作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.請求書取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.請求書取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.リクエスト
+　リクエストボディの備考にエラーチェックを追加</t>
+    <rPh sb="18" eb="20">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.リクエスト
+　基本仕様のパスにエラーチェックを追加</t>
+    <rPh sb="9" eb="11">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.2版</t>
+    <rPh sb="5" eb="6">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">登録ユーザ・更新ユーザID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空文字はエラー(400)</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,8 +1716,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -1641,17 +1724,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1672,7 +1773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1758,45 +1859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1823,7 +1885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1866,28 +1928,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1896,53 +1937,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1952,6 +2014,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2238,27 +2315,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" ht="33" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="11.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
-        <v>43099</v>
+        <v>43115</v>
       </c>
     </row>
   </sheetData>
@@ -2274,19 +2351,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="64.19921875" customWidth="1"/>
+    <col min="2" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2300,9 +2377,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3">
         <v>43093</v>
@@ -2314,85 +2391,101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="54" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="21">
+    <row r="6" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="46">
         <v>43094</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="108" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="D6" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="46">
         <v>43094</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="144" x14ac:dyDescent="0.45">
-      <c r="B8" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="D7" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="150" x14ac:dyDescent="0.4">
+      <c r="B8" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="46">
         <v>43094</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="47">
+        <v>43115</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="47">
+        <v>43115</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2411,22 +2504,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="37.3984375" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f>ROW()-6</f>
         <v>1</v>
@@ -2443,7 +2536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" ref="B8:B9" si="0">ROW()-6</f>
         <v>2</v>
@@ -2452,7 +2545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2475,368 +2568,561 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I43"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.59765625" customWidth="1"/>
+    <col min="9" max="9" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
-      <c r="C6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="25">
+        <v>2</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="25">
+        <v>3</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="25">
+        <v>4</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="25">
+        <v>5</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="25">
+        <v>6</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D14" s="2" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="25">
+        <v>200</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="25">
+        <v>400</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D15" s="1">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D17" s="13">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D18" s="13">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D19" s="13">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D20" s="13">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D21" s="13">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B25" s="4"/>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="4"/>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="4"/>
-      <c r="D27" s="1">
-        <v>200</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="4"/>
-      <c r="D28" s="1">
-        <v>400</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="163.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="163.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="10"/>
+      <c r="D41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="2:9" ht="62.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="10"/>
       <c r="D42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="2:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="10"/>
-      <c r="D43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="29"/>
+        <v>112</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2846,151 +3132,254 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I88"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="26.59765625" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.59765625" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
-      <c r="C6" t="s">
+    <row r="6" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="26"/>
+      <c r="C6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="26"/>
+      <c r="C18" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D14" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="4"/>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="25">
+        <v>200</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="4"/>
-      <c r="D20" s="1">
-        <v>200</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="25">
+        <v>400</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="4"/>
-      <c r="D21" s="1">
-        <v>400</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D29" s="2" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3003,15 +3392,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D30" s="1">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="25">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>71</v>
+      <c r="F30" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>27</v>
@@ -3020,18 +3411,20 @@
         <v>37</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D31" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="25">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>73</v>
+      <c r="F31" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>27</v>
@@ -3040,38 +3433,42 @@
         <v>37</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D32" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="25">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>75</v>
+      <c r="E32" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D33" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="25">
         <v>4</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>118</v>
+      <c r="E33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>27</v>
@@ -3083,35 +3480,39 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D34" s="1">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="25">
         <v>5</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>119</v>
+      <c r="E34" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D35" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="25">
         <v>6</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>120</v>
+      <c r="E35" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>27</v>
@@ -3120,38 +3521,42 @@
         <v>28</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D36" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="25">
         <v>7</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>121</v>
+      <c r="F36" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D37" s="1">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="25">
         <v>8</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>66</v>
+      <c r="F37" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>27</v>
@@ -3163,15 +3568,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D38" s="1">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="25">
         <v>9</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>67</v>
+      <c r="F38" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>27</v>
@@ -3183,15 +3590,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D39" s="1">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="25">
         <v>10</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>122</v>
+      <c r="F39" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>29</v>
@@ -3200,18 +3609,20 @@
         <v>36</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D40" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="25">
         <v>11</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>124</v>
+      <c r="E40" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>29</v>
@@ -3223,15 +3634,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D41" s="1">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="25">
         <v>12</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>125</v>
+      <c r="E41" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>27</v>
@@ -3243,15 +3656,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D42" s="1">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="25">
         <v>13</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>126</v>
+      <c r="E42" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>29</v>
@@ -3263,15 +3678,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D43" s="1">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="25">
         <v>14</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>127</v>
+      <c r="E43" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>27</v>
@@ -3283,15 +3700,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D44" s="1">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="25">
         <v>15</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>88</v>
+      <c r="E44" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>29</v>
@@ -3300,415 +3719,506 @@
         <v>28</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="25">
+        <v>16</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D45" s="1">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="25">
+        <v>17</v>
+      </c>
+      <c r="E46" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D46" s="1">
-        <v>17</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>128</v>
+      <c r="F46" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D47" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="25">
         <v>18</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>129</v>
+      <c r="E47" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="25">
+        <v>19</v>
+      </c>
+      <c r="E48" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D48" s="1">
-        <v>19</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>130</v>
+      <c r="F48" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D49" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="25">
         <v>20</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>131</v>
+      <c r="E49" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="25">
         <v>21</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>132</v>
+      <c r="E50" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C55" s="10"/>
-      <c r="D55" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" s="38"/>
-    </row>
-    <row r="56" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="10"/>
-      <c r="D56" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="21"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="39"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="33"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D57" s="36"/>
-      <c r="E57" s="30" t="s">
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="31"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D58" s="36"/>
-      <c r="E58" s="30" t="s">
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="31"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D59" s="36"/>
-      <c r="E59" s="30" t="s">
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F59" s="31"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D60" s="36"/>
-      <c r="E60" s="30" t="s">
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="31"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D61" s="36"/>
-      <c r="E61" s="30" t="s">
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="F61" s="31"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D62" s="36"/>
-      <c r="E62" s="30" t="s">
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="31"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D63" s="36"/>
-      <c r="E63" s="30" t="s">
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="31"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D64" s="36"/>
-      <c r="E64" s="30" t="s">
+      <c r="F66" s="34"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="F64" s="31"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D65" s="36"/>
-      <c r="E65" s="30" t="s">
+      <c r="F67" s="34"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F65" s="31"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D66" s="36"/>
-      <c r="E66" s="30" t="s">
+      <c r="F68" s="34"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F66" s="31"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D67" s="36"/>
-      <c r="E67" s="30" t="s">
+      <c r="F69" s="34"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="31"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D68" s="36"/>
-      <c r="E68" s="30" t="s">
+      <c r="F70" s="34"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="31"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D69" s="36"/>
-      <c r="E69" s="30" t="s">
+      <c r="F71" s="34"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="31"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D70" s="36"/>
-      <c r="E70" s="30" t="s">
+      <c r="F72" s="34"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F70" s="31"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D71" s="36"/>
-      <c r="E71" s="30" t="s">
+      <c r="F73" s="34"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F71" s="31"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D72" s="36"/>
-      <c r="E72" s="30" t="s">
+      <c r="F74" s="34"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F72" s="31"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D73" s="36"/>
-      <c r="E73" s="30" t="s">
+      <c r="F75" s="34"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F73" s="31"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D74" s="36"/>
-      <c r="E74" s="30" t="s">
+      <c r="F76" s="34"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="31"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D75" s="36"/>
-      <c r="E75" s="30" t="s">
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F75" s="31"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D76" s="36"/>
-      <c r="E76" s="30" t="s">
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="34"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F76" s="31"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D77" s="36"/>
-      <c r="E77" s="30" t="s">
+      <c r="F80" s="34"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="F77" s="31"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D78" s="36"/>
-      <c r="E78" s="30" t="s">
+      <c r="F81" s="34"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F78" s="31"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D79" s="36"/>
-      <c r="E79" s="30" t="s">
+      <c r="F82" s="34"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="F79" s="31"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D80" s="36"/>
-      <c r="E80" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F80" s="31"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D81" s="36"/>
-      <c r="E81" s="30" t="s">
+      <c r="F83" s="34"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F81" s="31"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D82" s="36"/>
-      <c r="E82" s="30" t="s">
+      <c r="F84" s="34"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="31"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D83" s="36"/>
-      <c r="E83" s="30" t="s">
+      <c r="F85" s="34"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="F83" s="31"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D84" s="36"/>
-      <c r="E84" s="30" t="s">
+      <c r="F86" s="34"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="31"/>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D85" s="36"/>
-      <c r="E85" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F85" s="31"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D86" s="36"/>
-      <c r="E86" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="F86" s="31"/>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D87" s="36"/>
-      <c r="E87" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="F87" s="31"/>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D88" s="36"/>
-      <c r="E88" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="F88" s="35"/>
+      <c r="F87" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="D56:D88"/>
+  <mergeCells count="34">
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
     <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="D55:D87"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E73:F73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3718,158 +4228,180 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I124"/>
+  <dimension ref="B2:I123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" customWidth="1"/>
-    <col min="9" max="9" width="41.59765625" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D14" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="21"/>
+      <c r="D14" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="21"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="D20" s="1">
         <v>200</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="D21" s="1">
         <v>400</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
@@ -3889,7 +4421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D30" s="1">
         <v>1</v>
       </c>
@@ -3897,439 +4429,439 @@
         <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D31" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D31" s="31">
         <v>2</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="E31" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D32" s="13">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D32" s="31">
         <v>3</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D33" s="31">
+        <v>4</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D34" s="31">
+        <v>5</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D35" s="31">
+        <v>6</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D36" s="31">
+        <v>7</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D37" s="31">
+        <v>8</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D38" s="31">
+        <v>9</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D39" s="31">
+        <v>10</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D40" s="31">
+        <v>11</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F40" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G40" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D41" s="31">
+        <v>12</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D42" s="31">
+        <v>13</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H42" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I42" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D43" s="31">
+        <v>14</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D33" s="13">
-        <v>4</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="13" t="s">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D44" s="31">
+        <v>15</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D45" s="31">
+        <v>16</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H45" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D34" s="13">
-        <v>5</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="13" t="s">
+      <c r="I45" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D46" s="31">
+        <v>17</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D47" s="31">
+        <v>18</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H47" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D35" s="13">
-        <v>6</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="I47" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D48" s="31">
+        <v>19</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="13" t="s">
+      <c r="H48" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D36" s="13">
-        <v>7</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="13" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D49" s="31">
+        <v>20</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D50" s="31">
+        <v>21</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H50" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I50" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D37" s="13">
-        <v>8</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" s="13" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D51" s="31">
+        <v>22</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H51" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I51" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D38" s="13">
-        <v>9</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D39" s="13">
-        <v>10</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D40" s="13">
-        <v>11</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D41" s="13">
-        <v>12</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D42" s="13">
-        <v>13</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D43" s="13">
-        <v>14</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D44" s="13">
-        <v>15</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D45" s="13">
-        <v>16</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D46" s="13">
-        <v>17</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D47" s="13">
-        <v>18</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D48" s="13">
-        <v>19</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D49" s="13">
-        <v>20</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D50" s="13">
-        <v>21</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D51" s="13">
-        <v>22</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -4337,503 +4869,492 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="249" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="10"/>
-      <c r="D56" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="F56" s="39"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D57" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="28"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D56" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D57" s="41"/>
+      <c r="E57" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D58" s="41"/>
       <c r="E58" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F58" s="23"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D59" s="41"/>
       <c r="E59" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F59" s="23"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D60" s="41"/>
       <c r="E60" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D61" s="41"/>
       <c r="E61" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F61" s="23"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D62" s="41"/>
       <c r="E62" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F62" s="23"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D63" s="41"/>
       <c r="E63" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F63" s="23"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D64" s="41"/>
       <c r="E64" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64" s="23"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D65" s="41"/>
       <c r="E65" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F65" s="23"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D66" s="41"/>
       <c r="E66" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F66" s="23"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D67" s="41"/>
       <c r="E67" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F67" s="23"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D68" s="41"/>
       <c r="E68" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F68" s="23"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D69" s="41"/>
       <c r="E69" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F69" s="23"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D70" s="41"/>
       <c r="E70" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F70" s="23"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D71" s="41"/>
       <c r="E71" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F71" s="23"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D72" s="41"/>
       <c r="E72" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F72" s="23"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D73" s="41"/>
       <c r="E73" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D74" s="41"/>
       <c r="E74" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F74" s="23"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D75" s="41"/>
       <c r="E75" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="23"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D76" s="41"/>
       <c r="E76" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F76" s="23"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D77" s="41"/>
       <c r="E77" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F77" s="23"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D78" s="41"/>
       <c r="E78" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F78" s="23"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+      <c r="F78" s="16"/>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D79" s="41"/>
       <c r="E79" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F79" s="23"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+      <c r="F79" s="16"/>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D80" s="41"/>
       <c r="E80" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F80" s="23"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D81" s="41"/>
       <c r="E81" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F81" s="23"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D82" s="41"/>
       <c r="E82" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F82" s="23"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D83" s="41"/>
       <c r="E83" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F83" s="23"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D84" s="41"/>
       <c r="E84" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F84" s="23"/>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D85" s="41"/>
       <c r="E85" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F85" s="23"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+      <c r="F85" s="16"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D86" s="41"/>
       <c r="E86" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F86" s="23"/>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+      <c r="F86" s="16"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D87" s="41"/>
       <c r="E87" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F87" s="23"/>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D88" s="41"/>
       <c r="E88" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F88" s="23"/>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+      <c r="F88" s="16"/>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D89" s="41"/>
       <c r="E89" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F89" s="23"/>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D90" s="41"/>
       <c r="E90" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F90" s="23"/>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+      <c r="F90" s="16"/>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D91" s="41"/>
       <c r="E91" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F91" s="23"/>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D92" s="41"/>
       <c r="E92" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F92" s="23"/>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+      <c r="F92" s="16"/>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D93" s="41"/>
       <c r="E93" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F93" s="23"/>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+      <c r="F93" s="16"/>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D94" s="41"/>
       <c r="E94" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F94" s="23"/>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+      <c r="F94" s="16"/>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D95" s="41"/>
       <c r="E95" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F95" s="23"/>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+      <c r="F95" s="16"/>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D96" s="41"/>
       <c r="E96" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F96" s="23"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D97" s="41"/>
       <c r="E97" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F97" s="23"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D98" s="41"/>
       <c r="E98" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F98" s="23"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D99" s="41"/>
       <c r="E99" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F99" s="23"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D100" s="41"/>
       <c r="E100" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F100" s="23"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D101" s="41"/>
       <c r="E101" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F101" s="23"/>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+      <c r="F101" s="16"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D102" s="41"/>
       <c r="E102" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F102" s="23"/>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D103" s="41"/>
       <c r="E103" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F103" s="23"/>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+      <c r="F103" s="16"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D104" s="41"/>
       <c r="E104" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F104" s="23"/>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D105" s="41"/>
       <c r="E105" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F105" s="23"/>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="F105" s="16"/>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D106" s="41"/>
       <c r="E106" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F106" s="23"/>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="F106" s="16"/>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D107" s="41"/>
       <c r="E107" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F107" s="23"/>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="F107" s="16"/>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D108" s="41"/>
       <c r="E108" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F108" s="23"/>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="F108" s="16"/>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D109" s="41"/>
       <c r="E109" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F109" s="23"/>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+      <c r="F109" s="16"/>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D110" s="41"/>
       <c r="E110" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F110" s="23"/>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+      <c r="F110" s="16"/>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D111" s="41"/>
       <c r="E111" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F111" s="23"/>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+      <c r="F111" s="16"/>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D112" s="41"/>
       <c r="E112" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F112" s="23"/>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+      <c r="F112" s="16"/>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D113" s="41"/>
       <c r="E113" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F113" s="23"/>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+      <c r="F113" s="16"/>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D114" s="41"/>
       <c r="E114" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F114" s="23"/>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="F114" s="16"/>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D115" s="41"/>
       <c r="E115" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F115" s="23"/>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+      <c r="F115" s="16"/>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D116" s="41"/>
       <c r="E116" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F116" s="23"/>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+      <c r="F116" s="16"/>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D117" s="41"/>
       <c r="E117" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F117" s="23"/>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+      <c r="F117" s="16"/>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D118" s="41"/>
       <c r="E118" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F118" s="23"/>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+      <c r="F118" s="16"/>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D119" s="41"/>
       <c r="E119" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F119" s="23"/>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+      <c r="F119" s="16"/>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D120" s="41"/>
       <c r="E120" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F120" s="23"/>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+      <c r="F120" s="16"/>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D121" s="41"/>
       <c r="E121" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F121" s="23"/>
-    </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+      <c r="F121" s="16"/>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D122" s="41"/>
       <c r="E122" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F122" s="23"/>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D123" s="41"/>
-      <c r="E123" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F123" s="23"/>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D124" s="42"/>
-      <c r="E124" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="F124" s="25"/>
+        <v>247</v>
+      </c>
+      <c r="F122" s="16"/>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D123" s="42"/>
+      <c r="E123" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F123" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="D57:D124"/>
+  <mergeCells count="1">
+    <mergeCell ref="D56:D123"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/invoice-doc/invoice_basic_design.xlsx
+++ b/invoice-doc/invoice_basic_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="291">
   <si>
     <t>改版履歴</t>
     <rPh sb="0" eb="2">
@@ -1479,13 +1479,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.1.3版</t>
-    <rPh sb="5" eb="6">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録ユーザ・更新ユーザID
 空文字はエラー(400)</t>
     <rPh sb="0" eb="2">
@@ -1511,29 +1504,107 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>フォーマットは「yyyy-MM-dd」
+    <t>フォーマットは「yyyy-MM-dd」
 フォーマットに従っていない場合はエラー(400)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "del_flg":"0",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【共通】エラーレスポンス</t>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000：必須パラメータがない
+1001：フォーマットが不正
+1002：登録されているデータがない
+1003：その他エラー</t>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSONサンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【共通】エラーレスポンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シートを追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.請求書作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・請求期間開始日を文字列に修正
+・請求期間終了日を文字列に修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・請求書作成日を文字列に修正
+・請求期間開始日を文字列に修正
+・請求期間終了日を文字列に修正
+・登録日時を文字列に修正
+・更新日時を文字列に修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.請求書取得
+3.請求書一覧取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.4版</t>
+    <rPh sb="5" eb="6">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【共通】エラーレスポンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスボディをArrayに修正</t>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーマットは「yyyy-MM-dd」
+フォーマットに従っていない場合はエラー(400)
 請求期間開始日以下が指定された場合はエラー(400)</t>
-    </r>
     <rPh sb="45" eb="47">
       <t>セイキュウ</t>
     </rPh>
@@ -1552,11 +1623,6 @@
     <rPh sb="60" eb="62">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォーマットは「yyyy-MM-dd」
-フォーマットに従っていない場合はエラー(400)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1570,66 +1636,41 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"2017-09-01"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-    "invoice_end_date":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-09-31"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
+      <t>"2017-09-01",
+    "invoice_end_date":"2017-09-31",
     "invoice_note":"サンプル備考"
 }</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">    "invoice_create_date":"2017-10-01",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "invoice_start_date":"2017-09-01",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "invoice_end_date":"2017-09-31",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "create_datetime":"2017-10-01 12:34:56.789",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "update_datetime":"2017-10-20 12:34:56.789",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">    "invoice_end_date":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-09-31"</t>
+      <t xml:space="preserve">        "invoice_create_date":</t>
     </r>
     <r>
       <rPr>
@@ -1639,28 +1680,13 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>"2017-10-01",</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">    "del_flg":"0",</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">    "update_datetime":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-10-20 12:34:56.789"</t>
+      <t xml:space="preserve">        "invoice_start_date":</t>
     </r>
     <r>
       <rPr>
@@ -1670,24 +1696,13 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>"2017-09-01",</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    "invoice_create_date":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-10-01"</t>
+      <t xml:space="preserve">        "invoice_end_date":</t>
     </r>
     <r>
       <rPr>
@@ -1697,52 +1712,13 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>"2017-09-31",</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">        "invoice_create_date":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-10-01"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    "invoice_start_date":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-09-01"</t>
+      <t xml:space="preserve">        "create_datetime":</t>
     </r>
     <r>
       <rPr>
@@ -1752,80 +1728,13 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>"2017-10-01 12:34:56.789",</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">        "invoice_start_date":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-09-01"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        "invoice_end_date":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-09-31"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    "create_datetime":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-10-01 12:34:56.789"</t>
+      <t xml:space="preserve">        "update_datetime":</t>
     </r>
     <r>
       <rPr>
@@ -1835,7 +1744,39 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>"2017-10-20 12:34:56.789",</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        "invoice_create_date":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"2017-10-01",</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        "invoice_end_date":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"2017-09-31",</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1846,80 +1787,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"2017-10-01 12:34:56.789"</t>
+      <t>"2017-10-01 12:34:56.789",</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        "update_datetime":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2017-10-20 12:34:56.789"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【共通】エラーレスポンス</t>
-    <rPh sb="1" eb="3">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>error_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>error_message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1927,70 +1801,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1000：必須パラメータがない
-1001：フォーマットが不正
-1002：登録されているデータがない
-1003：その他エラー</t>
-    <rPh sb="5" eb="7">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JSONサンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{
-  "error_code":1000,
-  "error_message":"user_id is require"
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【共通】エラーレスポンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シートを追加</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.1.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.請求書作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・請求期間開始日を文字列に修正
-・請求期間終了日を文字列に修正</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・請求書作成日を文字列に修正
-・請求期間開始日を文字列に修正
-・請求期間終了日を文字列に修正
-・登録日時を文字列に修正
-・更新日時を文字列に修正</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.請求書取得
-3.請求書一覧取得</t>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  エラーコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  エラーメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  error_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  error_message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "error_code":1000,
+    "error_message":"user_id is require"
+  },
+  {
+    "error_code":1001,
+    "error_message":"startdate format is yyyy-MM-dd"
+  }
+]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2278,7 +2126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2381,6 +2229,15 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2388,12 +2245,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2405,6 +2256,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2414,23 +2271,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2717,27 +2577,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" ht="33" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" ht="11.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="19.8" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
-        <v>43124</v>
+        <v>43131</v>
       </c>
     </row>
   </sheetData>
@@ -2749,23 +2609,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="64.19921875" customWidth="1"/>
+    <col min="2" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2779,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>108</v>
       </c>
@@ -2793,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="54" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B6" s="30" t="s">
         <v>199</v>
       </c>
@@ -2807,7 +2667,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="108" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
         <v>199</v>
       </c>
@@ -2821,7 +2681,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="144" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="150" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>199</v>
       </c>
@@ -2835,7 +2695,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="30" t="s">
         <v>241</v>
       </c>
@@ -2849,7 +2709,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="24" t="s">
         <v>241</v>
       </c>
@@ -2863,59 +2723,73 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="50">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="33">
         <v>43124</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="B12" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="50">
+      <c r="D11" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="33">
         <v>43124</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="90" x14ac:dyDescent="0.45">
-      <c r="B13" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="50">
+      <c r="D12" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B13" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="33">
         <v>43124</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D13" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="36">
+        <v>43131</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2930,22 +2804,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="37.3984375" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +2827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f>ROW()-6</f>
         <v>1</v>
@@ -2962,7 +2836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" ref="B8:B9" si="0">ROW()-6</f>
         <v>2</v>
@@ -2971,7 +2845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3001,20 +2875,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -3023,7 +2897,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C5" s="20" t="s">
         <v>54</v>
       </c>
@@ -3034,7 +2908,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C6" s="20"/>
       <c r="D6" s="23" t="s">
         <v>56</v>
@@ -3047,7 +2921,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
@@ -3055,12 +2929,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3080,61 +2954,82 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="D12" s="1">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E12" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="93.75" x14ac:dyDescent="0.4">
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="48"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3143,24 +3038,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.3984375" customWidth="1"/>
+    <col min="9" max="9" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3171,7 +3063,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>104</v>
@@ -3184,7 +3076,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -3195,7 +3087,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="22" t="s">
         <v>200</v>
@@ -3208,7 +3100,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="20"/>
       <c r="B5" s="22"/>
       <c r="C5" s="20"/>
@@ -3219,7 +3111,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="20"/>
       <c r="B6" s="22"/>
       <c r="C6" s="20" t="s">
@@ -3232,7 +3124,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
       <c r="B7" s="22"/>
       <c r="C7" s="20"/>
@@ -3247,7 +3139,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
       <c r="B8" s="22"/>
       <c r="C8" s="20"/>
@@ -3262,7 +3154,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -3273,7 +3165,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
@@ -3286,7 +3178,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3299,7 +3191,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -3310,7 +3202,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20" t="s">
@@ -3323,7 +3215,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -3346,7 +3238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -3366,10 +3258,10 @@
         <v>37</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3392,7 +3284,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3415,7 +3307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3428,17 +3320,17 @@
       <c r="F18" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="I18" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -3451,17 +3343,17 @@
       <c r="F19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -3484,7 +3376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -3495,7 +3387,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="22" t="s">
         <v>15</v>
@@ -3508,7 +3400,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A23" s="20"/>
       <c r="B23" s="22"/>
       <c r="C23" s="20"/>
@@ -3519,7 +3411,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="22"/>
       <c r="C24" s="20" t="s">
@@ -3532,7 +3424,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A25" s="20"/>
       <c r="B25" s="22"/>
       <c r="C25" s="20"/>
@@ -3547,7 +3439,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
       <c r="B26" s="22"/>
       <c r="C26" s="20"/>
@@ -3562,7 +3454,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
       <c r="B27" s="22"/>
       <c r="C27" s="20"/>
@@ -3577,7 +3469,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -3588,7 +3480,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
@@ -3601,7 +3493,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -3616,7 +3508,7 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D31" s="1" t="s">
         <v>58</v>
       </c>
@@ -3624,12 +3516,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
@@ -3649,7 +3541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D36" s="1">
         <v>1</v>
       </c>
@@ -3669,30 +3561,30 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="163.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="163.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="10"/>
       <c r="D41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="2:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E41" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="49"/>
+    </row>
+    <row r="42" spans="2:9" ht="62.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="10"/>
       <c r="D42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="34"/>
+      <c r="F42" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3707,36 +3599,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="B2:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="26.59765625" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.59765625" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="2:6" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="25"/>
       <c r="C6" s="20" t="s">
         <v>44</v>
@@ -3745,7 +3634,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="2:6" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="25"/>
       <c r="C7" s="20"/>
       <c r="D7" s="23" t="s">
@@ -3758,7 +3647,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="23" t="s">
@@ -3769,14 +3658,14 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
         <v>43</v>
@@ -3785,7 +3674,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
@@ -3794,14 +3683,14 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="20"/>
       <c r="C13" s="20" t="s">
         <v>47</v>
@@ -3810,7 +3699,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="26" t="s">
@@ -3819,14 +3708,14 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="2:6" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="25" t="s">
         <v>15</v>
       </c>
@@ -3835,14 +3724,14 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="25"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="25"/>
       <c r="C18" s="20" t="s">
         <v>50</v>
@@ -3851,7 +3740,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="25"/>
       <c r="C19" s="20"/>
       <c r="D19" s="23" t="s">
@@ -3862,7 +3751,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="25"/>
       <c r="C20" s="20"/>
       <c r="D20" s="24">
@@ -3873,7 +3762,7 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="25"/>
       <c r="C21" s="20"/>
       <c r="D21" s="24">
@@ -3884,14 +3773,14 @@
       </c>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="s">
         <v>54</v>
@@ -3900,7 +3789,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="23" t="s">
@@ -3911,7 +3800,7 @@
       </c>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="24" t="s">
@@ -3922,21 +3811,21 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="20"/>
       <c r="C28" s="20" t="s">
         <v>55</v>
@@ -3945,7 +3834,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="23" t="s">
@@ -3967,7 +3856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="24">
@@ -3989,7 +3878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24">
@@ -4011,7 +3900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="24">
@@ -4023,17 +3912,17 @@
       <c r="F32" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="24">
@@ -4045,17 +3934,17 @@
       <c r="F33" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I33" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="24">
@@ -4067,17 +3956,17 @@
       <c r="F34" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="24">
@@ -4089,17 +3978,17 @@
       <c r="F35" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="24">
@@ -4111,17 +4000,17 @@
       <c r="F36" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="24">
@@ -4133,17 +4022,17 @@
       <c r="F37" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I37" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="24">
@@ -4155,17 +4044,17 @@
       <c r="F38" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I38" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="24">
@@ -4177,17 +4066,17 @@
       <c r="F39" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="24">
@@ -4199,17 +4088,17 @@
       <c r="F40" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="24">
@@ -4221,17 +4110,17 @@
       <c r="F41" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I41" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="24">
@@ -4243,17 +4132,17 @@
       <c r="F42" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="24">
@@ -4265,17 +4154,17 @@
       <c r="F43" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I43" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="24">
@@ -4287,17 +4176,17 @@
       <c r="F44" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="24">
@@ -4309,17 +4198,17 @@
       <c r="F45" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="24">
@@ -4331,17 +4220,17 @@
       <c r="F46" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="24">
@@ -4353,17 +4242,17 @@
       <c r="F47" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="24">
@@ -4375,17 +4264,17 @@
       <c r="F48" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="24">
@@ -4397,17 +4286,17 @@
       <c r="F49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="24">
@@ -4429,21 +4318,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="20" t="s">
         <v>202</v>
       </c>
@@ -4452,314 +4341,332 @@
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="20"/>
       <c r="C55" s="27"/>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="38"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="35" t="s">
+      <c r="D56" s="40"/>
+      <c r="E56" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="36"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F56" s="39"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="35" t="s">
+      <c r="D57" s="40"/>
+      <c r="E57" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="36"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F57" s="39"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="35" t="s">
+      <c r="D58" s="40"/>
+      <c r="E58" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F58" s="36"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F58" s="39"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="F59" s="36"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D59" s="40"/>
+      <c r="E59" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="39"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="35" t="s">
+      <c r="D60" s="40"/>
+      <c r="E60" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F60" s="36"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F60" s="39"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="35" t="s">
+      <c r="D61" s="40"/>
+      <c r="E61" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="36"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F61" s="39"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="35" t="s">
+      <c r="D62" s="40"/>
+      <c r="E62" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F62" s="36"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F62" s="39"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="F63" s="36"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D63" s="40"/>
+      <c r="E63" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F63" s="39"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="F64" s="36"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D64" s="40"/>
+      <c r="E64" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F64" s="39"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="35" t="s">
+      <c r="D65" s="40"/>
+      <c r="E65" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="36"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F65" s="39"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="35" t="s">
+      <c r="D66" s="40"/>
+      <c r="E66" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="F66" s="36"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F66" s="39"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="F67" s="36"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D67" s="40"/>
+      <c r="E67" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" s="39"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="35" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="36"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F68" s="39"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="F69" s="36"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D69" s="40"/>
+      <c r="E69" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="36"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D70" s="40"/>
+      <c r="E70" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F70" s="39"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="35" t="s">
+      <c r="D71" s="40"/>
+      <c r="E71" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="36"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F71" s="39"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="35" t="s">
+      <c r="D72" s="40"/>
+      <c r="E72" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F72" s="36"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F72" s="39"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="35" t="s">
+      <c r="D73" s="40"/>
+      <c r="E73" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="F73" s="36"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F73" s="39"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="35" t="s">
+      <c r="D74" s="40"/>
+      <c r="E74" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F74" s="36"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F74" s="39"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="35" t="s">
+      <c r="D75" s="40"/>
+      <c r="E75" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F75" s="36"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F75" s="39"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="35" t="s">
+      <c r="D76" s="40"/>
+      <c r="E76" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="36"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F76" s="39"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="35" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F77" s="36"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F77" s="39"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="35" t="s">
+      <c r="D78" s="40"/>
+      <c r="E78" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="36"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F78" s="39"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="35" t="s">
+      <c r="D79" s="40"/>
+      <c r="E79" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="36"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F79" s="39"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="35" t="s">
+      <c r="D80" s="40"/>
+      <c r="E80" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F80" s="36"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F80" s="39"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="35" t="s">
+      <c r="D81" s="40"/>
+      <c r="E81" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="F81" s="36"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F81" s="39"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="35" t="s">
+      <c r="D82" s="40"/>
+      <c r="E82" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="F82" s="36"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F82" s="39"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="35" t="s">
+      <c r="D83" s="40"/>
+      <c r="E83" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F83" s="36"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F83" s="39"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="35" t="s">
+      <c r="D84" s="40"/>
+      <c r="E84" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="F84" s="36"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F84" s="39"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="35" t="s">
+      <c r="D85" s="40"/>
+      <c r="E85" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="F85" s="36"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F85" s="39"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="35" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="F86" s="36"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F86" s="39"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40" t="s">
+      <c r="D87" s="40"/>
+      <c r="E87" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F87" s="41"/>
+      <c r="F87" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="D55:D87"/>
@@ -4776,24 +4683,6 @@
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4803,42 +4692,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="B2:I123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" customWidth="1"/>
-    <col min="9" max="9" width="41.59765625" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="20"/>
       <c r="D7" s="28" t="s">
@@ -4848,7 +4734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="20"/>
       <c r="D8" s="28" t="s">
@@ -4858,45 +4744,45 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C10" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" s="20"/>
       <c r="D14" s="26" t="s">
         <v>160</v>
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C15" s="20"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -4905,7 +4791,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -4917,16 +4803,16 @@
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="D19" s="2" t="s">
         <v>51</v>
@@ -4935,7 +4821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="D20" s="1">
         <v>200</v>
@@ -4944,7 +4830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="D21" s="1">
         <v>400</v>
@@ -4953,12 +4839,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
@@ -4966,7 +4852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
@@ -4974,12 +4860,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +4885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D30" s="1">
         <v>1</v>
       </c>
@@ -5019,7 +4905,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D31" s="30">
         <v>2</v>
       </c>
@@ -5039,7 +4925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D32" s="30">
         <v>3</v>
       </c>
@@ -5059,7 +4945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D33" s="30">
         <v>4</v>
       </c>
@@ -5079,7 +4965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D34" s="30">
         <v>5</v>
       </c>
@@ -5089,17 +4975,17 @@
       <c r="F34" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="I34" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D35" s="30">
         <v>6</v>
       </c>
@@ -5109,17 +4995,17 @@
       <c r="F35" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D36" s="30">
         <v>7</v>
       </c>
@@ -5129,17 +5015,17 @@
       <c r="F36" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D37" s="30">
         <v>8</v>
       </c>
@@ -5149,17 +5035,17 @@
       <c r="F37" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D38" s="30">
         <v>9</v>
       </c>
@@ -5169,17 +5055,17 @@
       <c r="F38" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="I38" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D39" s="30">
         <v>10</v>
       </c>
@@ -5189,17 +5075,17 @@
       <c r="F39" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="I39" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D40" s="30">
         <v>11</v>
       </c>
@@ -5209,17 +5095,17 @@
       <c r="F40" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D41" s="30">
         <v>12</v>
       </c>
@@ -5229,17 +5115,17 @@
       <c r="F41" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D42" s="30">
         <v>13</v>
       </c>
@@ -5249,17 +5135,17 @@
       <c r="F42" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="I42" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D43" s="30">
         <v>14</v>
       </c>
@@ -5269,17 +5155,17 @@
       <c r="F43" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D44" s="30">
         <v>15</v>
       </c>
@@ -5289,17 +5175,17 @@
       <c r="F44" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="I44" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D45" s="30">
         <v>16</v>
       </c>
@@ -5319,7 +5205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D46" s="30">
         <v>17</v>
       </c>
@@ -5339,7 +5225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D47" s="30">
         <v>18</v>
       </c>
@@ -5359,7 +5245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D48" s="30">
         <v>19</v>
       </c>
@@ -5379,7 +5265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D49" s="30">
         <v>20</v>
       </c>
@@ -5399,7 +5285,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D50" s="30">
         <v>21</v>
       </c>
@@ -5419,7 +5305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D51" s="30">
         <v>22</v>
       </c>
@@ -5439,7 +5325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -5447,13 +5333,13 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D56" s="42" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D56" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="18" t="s">
@@ -5461,470 +5347,489 @@
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D57" s="43"/>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D57" s="46"/>
       <c r="E57" s="8" t="s">
         <v>207</v>
       </c>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D58" s="43"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D58" s="46"/>
       <c r="E58" s="8" t="s">
         <v>208</v>
       </c>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D59" s="43"/>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D59" s="46"/>
       <c r="E59" s="8" t="s">
         <v>209</v>
       </c>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D60" s="43"/>
-      <c r="E60" s="8" t="s">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D60" s="46"/>
+      <c r="E60" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="F60" s="15"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D61" s="43"/>
-      <c r="E61" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61" s="15"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D62" s="43"/>
-      <c r="E62" s="8" t="s">
+      <c r="F60" s="51"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D61" s="46"/>
+      <c r="E61" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="F61" s="51"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D62" s="46"/>
+      <c r="E62" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D63" s="43"/>
-      <c r="E63" s="8" t="s">
+      <c r="F62" s="51"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D63" s="46"/>
+      <c r="E63" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D64" s="43"/>
-      <c r="E64" s="8" t="s">
+      <c r="F63" s="51"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D64" s="46"/>
+      <c r="E64" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D65" s="43"/>
-      <c r="E65" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D66" s="43"/>
-      <c r="E66" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D67" s="43"/>
-      <c r="E67" s="8" t="s">
+      <c r="F64" s="51"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D65" s="46"/>
+      <c r="E65" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="F65" s="51"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D66" s="46"/>
+      <c r="E66" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="F66" s="51"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D67" s="46"/>
+      <c r="E67" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D68" s="43"/>
-      <c r="E68" s="8" t="s">
+      <c r="F67" s="51"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D68" s="46"/>
+      <c r="E68" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D69" s="43"/>
-      <c r="E69" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F69" s="15"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D70" s="43"/>
-      <c r="E70" s="8" t="s">
+      <c r="F68" s="51"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D69" s="46"/>
+      <c r="E69" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" s="51"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D70" s="46"/>
+      <c r="E70" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D71" s="43"/>
-      <c r="E71" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D72" s="43"/>
-      <c r="E72" s="8" t="s">
+      <c r="F70" s="51"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D71" s="46"/>
+      <c r="E71" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" s="51"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D72" s="46"/>
+      <c r="E72" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D73" s="43"/>
-      <c r="E73" s="8" t="s">
+      <c r="F72" s="51"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D73" s="46"/>
+      <c r="E73" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="F73" s="15"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D74" s="43"/>
-      <c r="E74" s="8" t="s">
+      <c r="F73" s="51"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D74" s="46"/>
+      <c r="E74" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="F74" s="15"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D75" s="43"/>
-      <c r="E75" s="8" t="s">
+      <c r="F74" s="51"/>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D75" s="46"/>
+      <c r="E75" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="F75" s="15"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D76" s="43"/>
+      <c r="F75" s="51"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D76" s="46"/>
       <c r="E76" s="8" t="s">
         <v>221</v>
       </c>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D77" s="43"/>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D77" s="46"/>
       <c r="E77" s="8" t="s">
         <v>222</v>
       </c>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D78" s="43"/>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D78" s="46"/>
       <c r="E78" s="8" t="s">
         <v>223</v>
       </c>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D79" s="43"/>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D79" s="46"/>
       <c r="E79" s="8" t="s">
         <v>224</v>
       </c>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D80" s="43"/>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D80" s="46"/>
       <c r="E80" s="8" t="s">
         <v>225</v>
       </c>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D81" s="43"/>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D81" s="46"/>
       <c r="E81" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D82" s="43"/>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D82" s="46"/>
       <c r="E82" s="8" t="s">
         <v>226</v>
       </c>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D83" s="43"/>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D83" s="46"/>
       <c r="E83" s="8" t="s">
         <v>227</v>
       </c>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D84" s="43"/>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D84" s="46"/>
       <c r="E84" s="8" t="s">
         <v>228</v>
       </c>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D85" s="43"/>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D85" s="46"/>
       <c r="E85" s="8" t="s">
         <v>229</v>
       </c>
       <c r="F85" s="15"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D86" s="43"/>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D86" s="46"/>
       <c r="E86" s="8" t="s">
         <v>230</v>
       </c>
       <c r="F86" s="15"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D87" s="43"/>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D87" s="46"/>
       <c r="E87" s="8" t="s">
         <v>231</v>
       </c>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D88" s="43"/>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D88" s="46"/>
       <c r="E88" s="8" t="s">
         <v>232</v>
       </c>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D89" s="43"/>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D89" s="46"/>
       <c r="E89" s="8" t="s">
         <v>233</v>
       </c>
       <c r="F89" s="15"/>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D90" s="43"/>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D90" s="46"/>
       <c r="E90" s="8" t="s">
         <v>207</v>
       </c>
       <c r="F90" s="15"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D91" s="43"/>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D91" s="46"/>
       <c r="E91" s="8" t="s">
         <v>208</v>
       </c>
       <c r="F91" s="15"/>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D92" s="43"/>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D92" s="46"/>
       <c r="E92" s="8" t="s">
         <v>209</v>
       </c>
       <c r="F92" s="15"/>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D93" s="43"/>
-      <c r="E93" s="8" t="s">
+    <row r="93" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D93" s="46"/>
+      <c r="E93" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="F93" s="15"/>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D94" s="43"/>
-      <c r="E94" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F94" s="15"/>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D95" s="43"/>
-      <c r="E95" s="8" t="s">
+      <c r="F93" s="51"/>
+      <c r="G93" s="26"/>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D94" s="46"/>
+      <c r="E94" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="F94" s="51"/>
+      <c r="G94" s="26"/>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D95" s="46"/>
+      <c r="E95" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="F95" s="15"/>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D96" s="43"/>
-      <c r="E96" s="8" t="s">
+      <c r="F95" s="51"/>
+      <c r="G95" s="26"/>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D96" s="46"/>
+      <c r="E96" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="F96" s="15"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D97" s="43"/>
-      <c r="E97" s="8" t="s">
+      <c r="F96" s="51"/>
+      <c r="G96" s="26"/>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D97" s="46"/>
+      <c r="E97" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="F97" s="15"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D98" s="43"/>
-      <c r="E98" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F98" s="15"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D99" s="43"/>
-      <c r="E99" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F99" s="15"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D100" s="43"/>
-      <c r="E100" s="8" t="s">
+      <c r="F97" s="51"/>
+      <c r="G97" s="26"/>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D98" s="46"/>
+      <c r="E98" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="F98" s="51"/>
+      <c r="G98" s="26"/>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D99" s="46"/>
+      <c r="E99" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="F99" s="51"/>
+      <c r="G99" s="26"/>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D100" s="46"/>
+      <c r="E100" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="F100" s="15"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D101" s="43"/>
-      <c r="E101" s="8" t="s">
+      <c r="F100" s="51"/>
+      <c r="G100" s="26"/>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D101" s="46"/>
+      <c r="E101" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D102" s="43"/>
-      <c r="E102" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F102" s="15"/>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D103" s="43"/>
-      <c r="E103" s="8" t="s">
+      <c r="F101" s="51"/>
+      <c r="G101" s="26"/>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D102" s="46"/>
+      <c r="E102" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102" s="51"/>
+      <c r="G102" s="26"/>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D103" s="46"/>
+      <c r="E103" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="F103" s="15"/>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D104" s="43"/>
-      <c r="E104" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F104" s="15"/>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D105" s="43"/>
-      <c r="E105" s="8" t="s">
+      <c r="F103" s="51"/>
+      <c r="G103" s="26"/>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D104" s="46"/>
+      <c r="E104" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="F104" s="51"/>
+      <c r="G104" s="26"/>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D105" s="46"/>
+      <c r="E105" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F105" s="15"/>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D106" s="43"/>
-      <c r="E106" s="8" t="s">
+      <c r="F105" s="51"/>
+      <c r="G105" s="26"/>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D106" s="46"/>
+      <c r="E106" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="F106" s="15"/>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D107" s="43"/>
-      <c r="E107" s="8" t="s">
+      <c r="F106" s="51"/>
+      <c r="G106" s="26"/>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D107" s="46"/>
+      <c r="E107" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="F107" s="15"/>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D108" s="43"/>
-      <c r="E108" s="8" t="s">
+      <c r="F107" s="51"/>
+      <c r="G107" s="26"/>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D108" s="46"/>
+      <c r="E108" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="F108" s="15"/>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D109" s="43"/>
-      <c r="E109" s="8" t="s">
+      <c r="F108" s="51"/>
+      <c r="G108" s="26"/>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D109" s="46"/>
+      <c r="E109" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="F109" s="15"/>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D110" s="43"/>
-      <c r="E110" s="8" t="s">
+      <c r="F109" s="51"/>
+      <c r="G109" s="26"/>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D110" s="46"/>
+      <c r="E110" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="F110" s="15"/>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D111" s="43"/>
-      <c r="E111" s="8" t="s">
+      <c r="F110" s="51"/>
+      <c r="G110" s="26"/>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D111" s="46"/>
+      <c r="E111" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="F111" s="15"/>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D112" s="43"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="26"/>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D112" s="46"/>
       <c r="E112" s="8" t="s">
         <v>224</v>
       </c>
       <c r="F112" s="15"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D113" s="43"/>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D113" s="46"/>
       <c r="E113" s="8" t="s">
         <v>225</v>
       </c>
       <c r="F113" s="15"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D114" s="43"/>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D114" s="46"/>
       <c r="E114" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F114" s="15"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D115" s="43"/>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D115" s="46"/>
       <c r="E115" s="8" t="s">
         <v>226</v>
       </c>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D116" s="43"/>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D116" s="46"/>
       <c r="E116" s="8" t="s">
         <v>227</v>
       </c>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D117" s="43"/>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D117" s="46"/>
       <c r="E117" s="8" t="s">
         <v>228</v>
       </c>
       <c r="F117" s="15"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D118" s="43"/>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D118" s="46"/>
       <c r="E118" s="8" t="s">
         <v>229</v>
       </c>
       <c r="F118" s="15"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D119" s="43"/>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D119" s="46"/>
       <c r="E119" s="8" t="s">
         <v>230</v>
       </c>
       <c r="F119" s="15"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D120" s="43"/>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D120" s="46"/>
       <c r="E120" s="8" t="s">
         <v>231</v>
       </c>
       <c r="F120" s="15"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D121" s="43"/>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D121" s="46"/>
       <c r="E121" s="8" t="s">
         <v>232</v>
       </c>
       <c r="F121" s="15"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D122" s="43"/>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D122" s="46"/>
       <c r="E122" s="8" t="s">
         <v>234</v>
       </c>
       <c r="F122" s="15"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D123" s="44"/>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D123" s="47"/>
       <c r="E123" s="16" t="s">
         <v>235</v>
       </c>
